--- a/data/trans_camb/P7C_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P7C_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,46</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,43</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>31,36</t>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>4,46</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 4,06</t>
+          <t>-4,73; 4,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 5,57</t>
+          <t>-3,95; 4,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 3,13</t>
+          <t>-6,23; 2,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,44; 42,07</t>
+          <t>1,06; 15,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,77</t>
+          <t>-13,2; 0,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,63</t>
+          <t>-2,7; 5,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 3,63</t>
+          <t>-3,33; 4,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,05; 35,06</t>
+          <t>-3,46; 3,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,84</t>
+          <t>-3,53; 3,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,63</t>
+          <t>2,34; 10,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,32</t>
+          <t>-4,7; 3,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,35; 36,35</t>
+          <t>3,84; 10,71</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 2,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,43; 3,47</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 1,89</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 11,08</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 0,47</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 7,29</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,37%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,39%</t>
+          <t>-12,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>225,64%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>-21,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>188,22%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>-0,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>-3,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>206,51%</t>
+          <t>51,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-6,27%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>43,37%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-12,4%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 31,43</t>
+          <t>-27,19; 37,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 41,55</t>
+          <t>-23,4; 37,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,56; 24,38</t>
+          <t>-35,44; 17,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>151,22; 317,62</t>
+          <t>5,13; 112,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 28,37</t>
+          <t>-47,17; 2,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 34,78</t>
+          <t>-15,2; 42,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 27,3</t>
+          <t>-19,95; 31,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>134,52; 262,24</t>
+          <t>-19,5; 28,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 20,99</t>
+          <t>-21,27; 26,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 27,07</t>
+          <t>14,45; 79,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 17,36</t>
+          <t>-19,81; 18,12</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>158,54; 256,94</t>
+          <t>22,18; 86,75</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,43; 21,27</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-14,74; 25,45</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-22,17; 14,15</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>18,62; 79,85</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-28,86; 2,83</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>10,95; 54,34</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,28</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,07</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-5,26</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,67</t>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 10,24</t>
+          <t>-5,4; 7,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 7,18</t>
+          <t>-5,22; 5,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 5,45</t>
+          <t>-5,74; 5,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,07; 34,77</t>
+          <t>-1,25; 9,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 6,4</t>
+          <t>-6,05; 6,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,64</t>
+          <t>-1,21; 12,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 5,85</t>
+          <t>-3,13; 5,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,56; 36,91</t>
+          <t>-2,96; 5,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,52</t>
+          <t>-3,12; 5,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,9</t>
+          <t>2,36; 13,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 4,09</t>
+          <t>-12,84; 1,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 32,73</t>
+          <t>-5,1; 9,76</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 5,52</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 4,31</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 4,18</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 9,75</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; 1,95</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 8,75</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-1,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>155,25%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>154,94%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>-21,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>154,99%</t>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>39,1%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-11,14%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 79,51</t>
+          <t>-30,16; 57,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 57,92</t>
+          <t>-29,39; 48,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 43,3</t>
+          <t>-32,37; 43,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,55; 263,71</t>
+          <t>-7,66; 77,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 43,67</t>
+          <t>-27,09; 40,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 46,68</t>
+          <t>-9,86; 104,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 40,84</t>
+          <t>-17,02; 40,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,98; 242,57</t>
+          <t>-15,47; 40,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 43,34</t>
+          <t>-16,33; 38,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 34,09</t>
+          <t>11,7; 88,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 29,34</t>
+          <t>-43,91; 8,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,8; 226,78</t>
+          <t>-23,78; 73,26</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-13,35; 38,2</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-15,01; 31,06</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-17,94; 28,3</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 67,59</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-31,36; 9,64</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-5,54; 64,12</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>12,09</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,49</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-2,11</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 15,92</t>
+          <t>-9,44; 18,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 9,88</t>
+          <t>-13,72; 9,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 9,41</t>
+          <t>-14,25; 12,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-2,93; 30,01</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-8,72; 7,19</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 7,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,61</t>
+          <t>-8,23; 6,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-6,7; 7,86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,99; 5,49</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 8,22</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-7,76; 7,99</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-7,86; 5,88</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-9,59; 4,65</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 9,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-7,25; 6,36</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 5,37</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 16,81</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,96%</t>
+          <t>-5,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,0%</t>
+          <t>-12,77%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>83,24%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-10,88%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-12,72%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-12,56%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,28%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-3,43%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-14,95%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-1,32%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-12,67%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>44,79%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 185,69</t>
+          <t>-52,66; 201,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,21; 117,87</t>
+          <t>-66,95; 106,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,44; 108,89</t>
+          <t>-68,75; 170,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-30,83; 315,78</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-50,68; 78,43</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 87,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,11; 58,32</t>
+          <t>-48,1; 69,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-37,9; 79,98</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-49,93; 53,97</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-42,92; 78,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-44,17; 69,82</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-44,73; 50,5</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-51,64; 46,23</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-37,28; 86,46</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-41,11; 59,12</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-50,69; 49,95</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-18,02; 138,53</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,54</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,75</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>29,6</t>
+          <t>6,0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>6,41</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,87</t>
+          <t>-3,06; 4,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,07</t>
+          <t>-3,38; 3,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,44</t>
+          <t>-4,91; 2,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,7; 37,92</t>
+          <t>2,09; 11,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,13</t>
+          <t>-9,09; 0,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,69</t>
+          <t>-0,89; 6,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,97</t>
+          <t>-1,9; 3,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,01; 33,39</t>
+          <t>-1,71; 3,51</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 2,85</t>
+          <t>-2,48; 2,71</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 2,87</t>
+          <t>3,3; 9,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,74</t>
+          <t>-5,36; 2,04</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,96; 33,67</t>
+          <t>2,66; 8,9</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 2,99</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 2,87</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 1,78</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 9,28</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 0,37</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1,76; 6,56</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>209,3%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>-17,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>177,72%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>41,19%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-2,37%</t>
+          <t>-6,53%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>192,87%</t>
+          <t>41,05%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-3,45%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-11,71%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>29,2%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 36,66</t>
+          <t>-18,51; 33,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 29,88</t>
+          <t>-19,94; 26,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 18,62</t>
+          <t>-28,19; 18,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>149,92; 278,78</t>
+          <t>12,58; 81,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 22,27</t>
+          <t>-36,0; 3,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 25,6</t>
+          <t>-5,95; 45,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 20,81</t>
+          <t>-11,42; 26,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>135,77; 228,61</t>
+          <t>-10,17; 24,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 19,75</t>
+          <t>-14,4; 19,18</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 20,08</t>
+          <t>19,2; 67,95</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 12,16</t>
+          <t>-22,19; 10,37</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>156,74; 235,52</t>
+          <t>17,06; 68,34</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 20,98</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-9,4; 20,39</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-15,78; 12,36</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>22,78; 63,05</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-23,59; 1,95</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>10,72; 47,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
